--- a/Prop/NSF-coa-Fisher.xlsx
+++ b/Prop/NSF-coa-Fisher.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t>A</t>
   </si>
@@ -221,12 +221,6 @@
       </rPr>
       <t xml:space="preserve"> List names as Last Name, First Name, Middle Initial, and provide organizational affiliations, if known, for the following.</t>
     </r>
-  </si>
-  <si>
-    <t>Alphaman, Alexander</t>
-  </si>
-  <si>
-    <t>Family</t>
   </si>
   <si>
     <t>Table E: List persons for whom a personal, family, or business relationship would otherwise preclude their service as a reviewer.</t>
@@ -2317,7 +2311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2331,7 +2325,7 @@
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2359,7 +2353,7 @@
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="134" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -2420,7 +2414,7 @@
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -2438,17 +2432,17 @@
         <v>24</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="4"/>
@@ -2457,7 +2451,7 @@
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="4"/>
@@ -2466,7 +2460,7 @@
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="4"/>
@@ -2490,7 +2484,7 @@
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" ht="30.5" customHeight="1">
       <c r="A17" s="50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -2524,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2558,13 +2552,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1">
@@ -2617,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
@@ -2662,13 +2656,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="25"/>
     </row>
@@ -2677,13 +2671,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35" s="25"/>
     </row>
@@ -2692,13 +2686,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="25"/>
     </row>
@@ -2707,13 +2701,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="25"/>
     </row>
@@ -2722,13 +2716,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="25">
         <v>42887</v>
@@ -2739,13 +2733,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="25">
         <v>42887</v>
@@ -2753,16 +2747,16 @@
     </row>
     <row r="40" spans="1:5" s="9" customFormat="1">
       <c r="A40" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>63</v>
-      </c>
       <c r="D40" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" s="25">
         <v>42887</v>
@@ -2773,13 +2767,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="25">
         <v>42887</v>
@@ -2787,16 +2781,16 @@
     </row>
     <row r="42" spans="1:5" s="9" customFormat="1">
       <c r="A42" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>67</v>
       </c>
       <c r="E42" s="25">
         <v>42887</v>
@@ -2804,16 +2798,16 @@
     </row>
     <row r="43" spans="1:5" s="9" customFormat="1">
       <c r="A43" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="37"/>
     </row>
@@ -2822,13 +2816,13 @@
         <v>13</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E44" s="25"/>
     </row>
@@ -2837,13 +2831,13 @@
         <v>13</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="E45" s="25">
         <v>43030</v>
@@ -2854,13 +2848,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" s="38">
         <v>42522</v>
@@ -2871,13 +2865,13 @@
         <v>13</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47" s="37">
         <v>41944</v>
@@ -2888,13 +2882,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="D48" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" s="37">
         <v>41944</v>
@@ -2905,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E49" s="37"/>
     </row>
@@ -2920,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E50" s="37"/>
     </row>
@@ -2935,13 +2929,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>85</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="E51" s="37"/>
     </row>
@@ -2950,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>90</v>
       </c>
       <c r="E52" s="37"/>
     </row>
@@ -2965,13 +2959,13 @@
         <v>8</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E53" s="37"/>
     </row>
@@ -3040,13 +3034,13 @@
         <v>15</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E61" s="25">
         <v>43023</v>
@@ -3084,7 +3078,7 @@
     </row>
     <row r="67" spans="1:5" s="13" customFormat="1" ht="29.5" customHeight="1">
       <c r="A67" s="50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B67" s="50"/>
       <c r="C67" s="50"/>
@@ -3096,7 +3090,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C68" s="49"/>
       <c r="D68" s="49"/>
@@ -3129,12 +3123,8 @@
       <c r="A71" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="25"/>
     </row>
